--- a/api/Assets/Images/Employees.xlsx
+++ b/api/Assets/Images/Employees.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27726"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27830"/>
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="https://d.docs.live.net/45650b1f7c76e176/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\IdealR_\idealR\api\Assets\Images\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{DD50676B-3BEB-4D62-BAE2-60255FCBC442}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A4DF6581-5FCE-47C0-B49C-A47822F1D71B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-108" yWindow="-108" windowWidth="23256" windowHeight="12576" xr2:uid="{E24DEEA5-8BD3-4ED9-815C-9D9C803CE8B1}"/>
   </bookViews>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="285" uniqueCount="161">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="323" uniqueCount="163">
   <si>
     <t>First Name</t>
   </si>
@@ -509,6 +509,12 @@
   </si>
   <si>
     <t>Car Washer</t>
+  </si>
+  <si>
+    <t>M</t>
+  </si>
+  <si>
+    <t>F</t>
   </si>
 </sst>
 </file>
@@ -881,10 +887,10 @@
   <dimension ref="A4:Z42"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <pane xSplit="5" ySplit="4" topLeftCell="T5" activePane="bottomRight" state="frozen"/>
+      <pane xSplit="5" ySplit="4" topLeftCell="F5" activePane="bottomRight" state="frozen"/>
       <selection pane="topRight" activeCell="F1" sqref="F1"/>
       <selection pane="bottomLeft" activeCell="A5" sqref="A5"/>
-      <selection pane="bottomRight" activeCell="Z34" sqref="Z34"/>
+      <selection pane="bottomRight" activeCell="A5" sqref="A5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4"/>
@@ -983,6 +989,9 @@
       </c>
     </row>
     <row r="5" spans="1:26">
+      <c r="A5" t="s">
+        <v>161</v>
+      </c>
       <c r="B5" t="s">
         <v>59</v>
       </c>
@@ -1019,6 +1028,9 @@
       </c>
     </row>
     <row r="6" spans="1:26">
+      <c r="A6" t="s">
+        <v>162</v>
+      </c>
       <c r="B6" s="3" t="s">
         <v>62</v>
       </c>
@@ -1058,6 +1070,9 @@
       </c>
     </row>
     <row r="7" spans="1:26">
+      <c r="A7" t="s">
+        <v>161</v>
+      </c>
       <c r="B7" s="3" t="s">
         <v>63</v>
       </c>
@@ -1097,6 +1112,9 @@
       </c>
     </row>
     <row r="8" spans="1:26">
+      <c r="A8" t="s">
+        <v>161</v>
+      </c>
       <c r="B8" s="3" t="s">
         <v>64</v>
       </c>
@@ -1136,6 +1154,9 @@
       </c>
     </row>
     <row r="9" spans="1:26">
+      <c r="A9" t="s">
+        <v>161</v>
+      </c>
       <c r="B9" s="3" t="s">
         <v>65</v>
       </c>
@@ -1175,6 +1196,9 @@
       </c>
     </row>
     <row r="10" spans="1:26" ht="20.399999999999999">
+      <c r="A10" t="s">
+        <v>161</v>
+      </c>
       <c r="B10" s="3" t="s">
         <v>66</v>
       </c>
@@ -1214,6 +1238,9 @@
       </c>
     </row>
     <row r="11" spans="1:26">
+      <c r="A11" t="s">
+        <v>161</v>
+      </c>
       <c r="B11" s="3" t="s">
         <v>67</v>
       </c>
@@ -1253,6 +1280,9 @@
       </c>
     </row>
     <row r="12" spans="1:26">
+      <c r="A12" t="s">
+        <v>161</v>
+      </c>
       <c r="B12" s="3" t="s">
         <v>68</v>
       </c>
@@ -1292,6 +1322,9 @@
       </c>
     </row>
     <row r="13" spans="1:26">
+      <c r="A13" t="s">
+        <v>161</v>
+      </c>
       <c r="B13" s="3" t="s">
         <v>69</v>
       </c>
@@ -1331,6 +1364,9 @@
       </c>
     </row>
     <row r="14" spans="1:26">
+      <c r="A14" t="s">
+        <v>161</v>
+      </c>
       <c r="B14" s="3" t="s">
         <v>70</v>
       </c>
@@ -1370,6 +1406,9 @@
       </c>
     </row>
     <row r="15" spans="1:26">
+      <c r="A15" t="s">
+        <v>161</v>
+      </c>
       <c r="B15" s="3" t="s">
         <v>71</v>
       </c>
@@ -1409,6 +1448,9 @@
       </c>
     </row>
     <row r="16" spans="1:26">
+      <c r="A16" t="s">
+        <v>162</v>
+      </c>
       <c r="B16" s="3" t="s">
         <v>72</v>
       </c>
@@ -1447,7 +1489,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="17" spans="2:25">
+    <row r="17" spans="1:25">
+      <c r="A17" t="s">
+        <v>161</v>
+      </c>
       <c r="B17" s="3" t="s">
         <v>73</v>
       </c>
@@ -1486,7 +1531,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="18" spans="2:25" ht="20.399999999999999">
+    <row r="18" spans="1:25" ht="20.399999999999999">
+      <c r="A18" t="s">
+        <v>162</v>
+      </c>
       <c r="B18" s="3" t="s">
         <v>74</v>
       </c>
@@ -1540,7 +1588,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="19" spans="2:25" ht="20.399999999999999">
+    <row r="19" spans="1:25" ht="20.399999999999999">
+      <c r="A19" t="s">
+        <v>161</v>
+      </c>
       <c r="B19" s="3" t="s">
         <v>75</v>
       </c>
@@ -1591,7 +1642,10 @@
         <v>40</v>
       </c>
     </row>
-    <row r="20" spans="2:25">
+    <row r="20" spans="1:25">
+      <c r="A20" t="s">
+        <v>162</v>
+      </c>
       <c r="B20" s="3" t="s">
         <v>76</v>
       </c>
@@ -1630,7 +1684,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="21" spans="2:25">
+    <row r="21" spans="1:25">
+      <c r="A21" t="s">
+        <v>161</v>
+      </c>
       <c r="B21" s="3" t="s">
         <v>77</v>
       </c>
@@ -1669,7 +1726,10 @@
         <v>150</v>
       </c>
     </row>
-    <row r="22" spans="2:25">
+    <row r="22" spans="1:25">
+      <c r="A22" t="s">
+        <v>162</v>
+      </c>
       <c r="B22" s="3" t="s">
         <v>78</v>
       </c>
@@ -1723,7 +1783,10 @@
         <v>38</v>
       </c>
     </row>
-    <row r="23" spans="2:25">
+    <row r="23" spans="1:25">
+      <c r="A23" t="s">
+        <v>161</v>
+      </c>
       <c r="B23" s="3" t="s">
         <v>79</v>
       </c>
@@ -1768,7 +1831,10 @@
         <v>158</v>
       </c>
     </row>
-    <row r="24" spans="2:25">
+    <row r="24" spans="1:25">
+      <c r="A24" t="s">
+        <v>162</v>
+      </c>
       <c r="B24" s="3" t="s">
         <v>80</v>
       </c>
@@ -1807,7 +1873,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="25" spans="2:25">
+    <row r="25" spans="1:25">
+      <c r="A25" t="s">
+        <v>161</v>
+      </c>
       <c r="B25" s="3" t="s">
         <v>81</v>
       </c>
@@ -1846,7 +1915,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="26" spans="2:25">
+    <row r="26" spans="1:25">
+      <c r="A26" t="s">
+        <v>161</v>
+      </c>
       <c r="B26" s="3" t="s">
         <v>82</v>
       </c>
@@ -1885,7 +1957,10 @@
         <v>155</v>
       </c>
     </row>
-    <row r="27" spans="2:25">
+    <row r="27" spans="1:25">
+      <c r="A27" t="s">
+        <v>161</v>
+      </c>
       <c r="B27" s="3" t="s">
         <v>83</v>
       </c>
@@ -1924,7 +1999,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="28" spans="2:25">
+    <row r="28" spans="1:25">
+      <c r="A28" t="s">
+        <v>161</v>
+      </c>
       <c r="B28" s="3" t="s">
         <v>84</v>
       </c>
@@ -1978,7 +2056,10 @@
         <v>46</v>
       </c>
     </row>
-    <row r="29" spans="2:25" ht="20.399999999999999">
+    <row r="29" spans="1:25" ht="20.399999999999999">
+      <c r="A29" t="s">
+        <v>161</v>
+      </c>
       <c r="B29" s="3" t="s">
         <v>85</v>
       </c>
@@ -2029,7 +2110,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="30" spans="2:25">
+    <row r="30" spans="1:25">
+      <c r="A30" t="s">
+        <v>161</v>
+      </c>
       <c r="B30" s="3" t="s">
         <v>86</v>
       </c>
@@ -2068,7 +2152,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="31" spans="2:25">
+    <row r="31" spans="1:25">
+      <c r="A31" t="s">
+        <v>161</v>
+      </c>
       <c r="B31" s="3" t="s">
         <v>87</v>
       </c>
@@ -2107,7 +2194,10 @@
         <v>152</v>
       </c>
     </row>
-    <row r="32" spans="2:25">
+    <row r="32" spans="1:25">
+      <c r="A32" t="s">
+        <v>161</v>
+      </c>
       <c r="B32" s="3" t="s">
         <v>88</v>
       </c>
@@ -2146,7 +2236,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="33" spans="2:26">
+    <row r="33" spans="1:26">
+      <c r="A33" t="s">
+        <v>161</v>
+      </c>
       <c r="B33" s="3" t="s">
         <v>89</v>
       </c>
@@ -2194,7 +2287,10 @@
         <v>33</v>
       </c>
     </row>
-    <row r="34" spans="2:26">
+    <row r="34" spans="1:26">
+      <c r="A34" t="s">
+        <v>162</v>
+      </c>
       <c r="B34" s="3" t="s">
         <v>90</v>
       </c>
@@ -2245,7 +2341,10 @@
         <v>30</v>
       </c>
     </row>
-    <row r="35" spans="2:26">
+    <row r="35" spans="1:26">
+      <c r="A35" t="s">
+        <v>161</v>
+      </c>
       <c r="B35" s="3" t="s">
         <v>91</v>
       </c>
@@ -2284,7 +2383,10 @@
         <v>156</v>
       </c>
     </row>
-    <row r="36" spans="2:26">
+    <row r="36" spans="1:26">
+      <c r="A36" t="s">
+        <v>161</v>
+      </c>
       <c r="B36" s="3" t="s">
         <v>92</v>
       </c>
@@ -2326,7 +2428,10 @@
         <v>159</v>
       </c>
     </row>
-    <row r="37" spans="2:26">
+    <row r="37" spans="1:26">
+      <c r="A37" t="s">
+        <v>161</v>
+      </c>
       <c r="B37" s="3" t="s">
         <v>93</v>
       </c>
@@ -2368,7 +2473,10 @@
         <v>160</v>
       </c>
     </row>
-    <row r="38" spans="2:26" ht="20.399999999999999">
+    <row r="38" spans="1:26" ht="20.399999999999999">
+      <c r="A38" t="s">
+        <v>161</v>
+      </c>
       <c r="B38" s="3" t="s">
         <v>94</v>
       </c>
@@ -2407,7 +2515,10 @@
         <v>151</v>
       </c>
     </row>
-    <row r="39" spans="2:26">
+    <row r="39" spans="1:26">
+      <c r="A39" t="s">
+        <v>161</v>
+      </c>
       <c r="B39" s="3" t="s">
         <v>95</v>
       </c>
@@ -2446,7 +2557,10 @@
         <v>152</v>
       </c>
     </row>
-    <row r="40" spans="2:26">
+    <row r="40" spans="1:26">
+      <c r="A40" t="s">
+        <v>162</v>
+      </c>
       <c r="B40" s="3" t="s">
         <v>96</v>
       </c>
@@ -2485,7 +2599,10 @@
         <v>153</v>
       </c>
     </row>
-    <row r="41" spans="2:26">
+    <row r="41" spans="1:26">
+      <c r="A41" t="s">
+        <v>161</v>
+      </c>
       <c r="B41" s="3" t="s">
         <v>97</v>
       </c>
@@ -2524,7 +2641,10 @@
         <v>154</v>
       </c>
     </row>
-    <row r="42" spans="2:26">
+    <row r="42" spans="1:26">
+      <c r="A42" t="s">
+        <v>161</v>
+      </c>
       <c r="B42" s="3" t="s">
         <v>98</v>
       </c>
